--- a/runs/run480/NotionalETEOutput480.xlsx
+++ b/runs/run480/NotionalETEOutput480.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER2_State_Update</t>
+    <t>Missile_BRAVER1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER2_43.MISSILE_BRAVER2_43</t>
+    <t>MISSILE_BRAVER1_39.MISSILE_BRAVER1_39</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER2</t>
+    <t>MISSILE_BRAVER1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1450.632365985111</v>
+        <v>-1492.003921306525</v>
       </c>
       <c r="J2">
-        <v>2071.145666494036</v>
+        <v>1953.577044127232</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1469.722196392927</v>
+        <v>-1526.509709635945</v>
       </c>
       <c r="J3">
-        <v>1856.07657108238</v>
+        <v>1950.387254615408</v>
       </c>
       <c r="K3">
-        <v>314.4246026999907</v>
+        <v>291.5196369854799</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1387.638987001865</v>
+        <v>-1478.940514171333</v>
       </c>
       <c r="J4">
-        <v>1982.402126730163</v>
+        <v>1864.465865449376</v>
       </c>
       <c r="K4">
-        <v>577.1508778781551</v>
+        <v>570.0040123631888</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1388.58056384858</v>
+        <v>-1419.857585440155</v>
       </c>
       <c r="J5">
-        <v>1774.51720777212</v>
+        <v>1810.374781891653</v>
       </c>
       <c r="K5">
-        <v>851.9758398896662</v>
+        <v>833.4681554344536</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1438.132635447619</v>
+        <v>-1395.15496786502</v>
       </c>
       <c r="J6">
-        <v>1869.137911034257</v>
+        <v>1768.151063257227</v>
       </c>
       <c r="K6">
-        <v>1142.41723043549</v>
+        <v>1087.863462740018</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1315.213162678532</v>
+        <v>-1384.283405565317</v>
       </c>
       <c r="J7">
-        <v>1762.19412439659</v>
+        <v>1786.06628329483</v>
       </c>
       <c r="K7">
-        <v>1413.959281008175</v>
+        <v>1356.328907944744</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1270.220411216814</v>
+        <v>-1365.362822610211</v>
       </c>
       <c r="J8">
-        <v>1790.493245721613</v>
+        <v>1756.621224106468</v>
       </c>
       <c r="K8">
-        <v>1530.619685375122</v>
+        <v>1601.124823888948</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-102.3274619741669</v>
+        <v>-95.19987300553066</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1248.394484750128</v>
+        <v>-1288.512538736291</v>
       </c>
       <c r="J9">
-        <v>1680.253551095906</v>
+        <v>1628.152547399619</v>
       </c>
       <c r="K9">
-        <v>1801.927899282728</v>
+        <v>1809.139114486713</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>226.3289332953263</v>
+        <v>208.7823944673058</v>
       </c>
       <c r="G10">
-        <v>-86.77717371882004</v>
+        <v>-79.89320676001341</v>
       </c>
       <c r="H10">
-        <v>840.2975542029108</v>
+        <v>901.1022139300534</v>
       </c>
       <c r="I10">
-        <v>-1265.403963513721</v>
+        <v>-1187.226731029475</v>
       </c>
       <c r="J10">
-        <v>1619.6909770884</v>
+        <v>1636.576060365954</v>
       </c>
       <c r="K10">
-        <v>2071.31859594856</v>
+        <v>1977.199288250476</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>170.7932660550316</v>
+        <v>167.1048706584827</v>
       </c>
       <c r="G11">
-        <v>-65.50839208297451</v>
+        <v>-64.92284856311049</v>
       </c>
       <c r="H11">
-        <v>1034.062284377841</v>
+        <v>1108.007648345206</v>
       </c>
       <c r="I11">
-        <v>-1165.897669798603</v>
+        <v>-1265.869561888101</v>
       </c>
       <c r="J11">
-        <v>1499.668537986774</v>
+        <v>1581.688552627347</v>
       </c>
       <c r="K11">
-        <v>2121.692359465641</v>
+        <v>2285.714299379102</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>141.9725765169006</v>
+        <v>134.4082494326836</v>
       </c>
       <c r="G12">
-        <v>-50.21556772293135</v>
+        <v>-48.39490154661577</v>
       </c>
       <c r="H12">
-        <v>1165.680110935512</v>
+        <v>1149.851546259295</v>
       </c>
       <c r="I12">
-        <v>-1226.036361504319</v>
+        <v>-1111.793791454762</v>
       </c>
       <c r="J12">
-        <v>1459.774924483143</v>
+        <v>1568.145401141308</v>
       </c>
       <c r="K12">
-        <v>2341.302566938381</v>
+        <v>2377.009286213804</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>124.8728851538166</v>
+        <v>126.0312543285877</v>
       </c>
       <c r="G13">
-        <v>-32.54368933149303</v>
+        <v>-35.43452532421919</v>
       </c>
       <c r="H13">
-        <v>1298.431259916626</v>
+        <v>1299.479014475983</v>
       </c>
       <c r="I13">
-        <v>-1174.285773051371</v>
+        <v>-1120.681279076319</v>
       </c>
       <c r="J13">
-        <v>1470.022438132268</v>
+        <v>1536.16080218962</v>
       </c>
       <c r="K13">
-        <v>2403.140538392518</v>
+        <v>2600.246508719431</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>110.8513781866414</v>
+        <v>104.0459769447592</v>
       </c>
       <c r="G14">
-        <v>-17.89682237905916</v>
+        <v>-18.29152634966702</v>
       </c>
       <c r="H14">
-        <v>1298.079245100625</v>
+        <v>1309.885986407702</v>
       </c>
       <c r="I14">
-        <v>-1129.017622397308</v>
+        <v>-1096.871870471902</v>
       </c>
       <c r="J14">
-        <v>1483.696938536902</v>
+        <v>1388.234369258352</v>
       </c>
       <c r="K14">
-        <v>2522.851094088747</v>
+        <v>2682.945482970236</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>104.2232788239474</v>
+        <v>96.25577126408811</v>
       </c>
       <c r="G15">
-        <v>-0.9192577584782479</v>
+        <v>-0.9234615614371482</v>
       </c>
       <c r="H15">
-        <v>1318.141535556563</v>
+        <v>1431.48760148734</v>
       </c>
       <c r="I15">
-        <v>-1092.417774197519</v>
+        <v>-1065.8258745946</v>
       </c>
       <c r="J15">
-        <v>1307.149705318024</v>
+        <v>1359.734227848318</v>
       </c>
       <c r="K15">
-        <v>2655.658303816842</v>
+        <v>2729.531371620584</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>96.63585276219267</v>
+        <v>96.93226136474074</v>
       </c>
       <c r="G16">
-        <v>15.456723627182</v>
+        <v>15.72670327415451</v>
       </c>
       <c r="H16">
-        <v>1456.07515895706</v>
+        <v>1418.78902170075</v>
       </c>
       <c r="I16">
-        <v>-995.941623674864</v>
+        <v>-967.4649003089893</v>
       </c>
       <c r="J16">
-        <v>1261.554947371521</v>
+        <v>1322.23209691927</v>
       </c>
       <c r="K16">
-        <v>2868.129647186997</v>
+        <v>2781.904764923533</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.53405785105997</v>
+        <v>89.97469905117482</v>
       </c>
       <c r="G17">
-        <v>31.27348635591236</v>
+        <v>33.58336144095521</v>
       </c>
       <c r="H17">
-        <v>1473.102900414202</v>
+        <v>1524.138035830649</v>
       </c>
       <c r="I17">
-        <v>-956.2942873896015</v>
+        <v>-938.163770198381</v>
       </c>
       <c r="J17">
-        <v>1262.898930157316</v>
+        <v>1213.106696775923</v>
       </c>
       <c r="K17">
-        <v>2861.596677239723</v>
+        <v>2850.653773737079</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.15729895703227</v>
+        <v>78.00208027875277</v>
       </c>
       <c r="G18">
-        <v>47.00538922279982</v>
+        <v>51.03614768561803</v>
       </c>
       <c r="H18">
-        <v>1534.101568203074</v>
+        <v>1481.790521366432</v>
       </c>
       <c r="I18">
-        <v>-907.7754764544793</v>
+        <v>-900.0005028430462</v>
       </c>
       <c r="J18">
-        <v>1254.854576896869</v>
+        <v>1190.437286118133</v>
       </c>
       <c r="K18">
-        <v>2908.463036122491</v>
+        <v>3004.308657854413</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.90535178260276</v>
+        <v>75.95494818160486</v>
       </c>
       <c r="G19">
-        <v>63.27858680556594</v>
+        <v>65.23157902119546</v>
       </c>
       <c r="H19">
-        <v>1483.191582729247</v>
+        <v>1533.137043967336</v>
       </c>
       <c r="I19">
-        <v>-927.4205817242513</v>
+        <v>-911.5899676325148</v>
       </c>
       <c r="J19">
-        <v>1136.489824977505</v>
+        <v>1153.845578754997</v>
       </c>
       <c r="K19">
-        <v>3107.212480435112</v>
+        <v>3226.744551524126</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>76.71847928992322</v>
+        <v>77.55906359332749</v>
       </c>
       <c r="G20">
-        <v>79.65393613856445</v>
+        <v>83.33453955926993</v>
       </c>
       <c r="H20">
-        <v>1570.821703817435</v>
+        <v>1598.712108035672</v>
       </c>
       <c r="I20">
-        <v>-851.0242225490434</v>
+        <v>-810.7587580005206</v>
       </c>
       <c r="J20">
-        <v>1152.747745203063</v>
+        <v>1101.433440627498</v>
       </c>
       <c r="K20">
-        <v>3161.757354061287</v>
+        <v>3190.975463473548</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.16659160934996</v>
+        <v>68.27854436625648</v>
       </c>
       <c r="G21">
-        <v>96.53352934018389</v>
+        <v>95.5977740024635</v>
       </c>
       <c r="H21">
-        <v>1655.685285322472</v>
+        <v>1555.980878439558</v>
       </c>
       <c r="I21">
-        <v>-799.5104157646362</v>
+        <v>-770.2139062088789</v>
       </c>
       <c r="J21">
-        <v>1041.876517726966</v>
+        <v>1023.792095924625</v>
       </c>
       <c r="K21">
-        <v>3143.548988311191</v>
+        <v>3190.0959177155</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>64.79536722335311</v>
+        <v>68.92237397857812</v>
       </c>
       <c r="G22">
-        <v>115.0935665360336</v>
+        <v>116.9143921585554</v>
       </c>
       <c r="H22">
-        <v>1605.562716857597</v>
+        <v>1601.827661388896</v>
       </c>
       <c r="I22">
-        <v>-750.3214338709327</v>
+        <v>-710.4775798187736</v>
       </c>
       <c r="J22">
-        <v>1031.286857858254</v>
+        <v>1010.905928240601</v>
       </c>
       <c r="K22">
-        <v>3062.470586090116</v>
+        <v>3332.420135958713</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.41404603993081</v>
+        <v>63.56695284600316</v>
       </c>
       <c r="G23">
-        <v>130.9930618289027</v>
+        <v>133.7943819534391</v>
       </c>
       <c r="H23">
-        <v>1682.327138140336</v>
+        <v>1569.364209839835</v>
       </c>
       <c r="I23">
-        <v>-723.9135438279542</v>
+        <v>-676.6420063542372</v>
       </c>
       <c r="J23">
-        <v>939.9833562580519</v>
+        <v>933.4598178503213</v>
       </c>
       <c r="K23">
-        <v>3106.933556574402</v>
+        <v>3244.176655442775</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.77118518687624</v>
+        <v>60.50252470568512</v>
       </c>
       <c r="G24">
-        <v>142.8437575251336</v>
+        <v>154.6566287801006</v>
       </c>
       <c r="H24">
-        <v>1582.751557112222</v>
+        <v>1685.392091210253</v>
       </c>
       <c r="I24">
-        <v>-671.1524218727195</v>
+        <v>-661.2687617145629</v>
       </c>
       <c r="J24">
-        <v>951.1593425564779</v>
+        <v>947.9785836542326</v>
       </c>
       <c r="K24">
-        <v>3076.912068246688</v>
+        <v>3123.796249321328</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.06632521161837</v>
+        <v>63.91755981582628</v>
       </c>
       <c r="G25">
-        <v>157.7260055293949</v>
+        <v>159.8062197619121</v>
       </c>
       <c r="H25">
-        <v>1732.797774066677</v>
+        <v>1617.20195332082</v>
       </c>
       <c r="I25">
-        <v>-580.737007641285</v>
+        <v>-628.0522977295989</v>
       </c>
       <c r="J25">
-        <v>923.6941899607689</v>
+        <v>874.6373217949205</v>
       </c>
       <c r="K25">
-        <v>3173.61788997908</v>
+        <v>3295.563213159887</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.24063681867599</v>
+        <v>58.33028860204251</v>
       </c>
       <c r="G26">
-        <v>176.0333171249409</v>
+        <v>183.6966767005673</v>
       </c>
       <c r="H26">
-        <v>1727.367975329946</v>
+        <v>1659.553521282849</v>
       </c>
       <c r="I26">
-        <v>-538.5868918336207</v>
+        <v>-571.9738063932134</v>
       </c>
       <c r="J26">
-        <v>809.1299791958178</v>
+        <v>819.3884659015349</v>
       </c>
       <c r="K26">
-        <v>3108.327739582455</v>
+        <v>2991.710494572334</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.76410072610975</v>
+        <v>60.76696664492304</v>
       </c>
       <c r="G27">
-        <v>192.5649961592225</v>
+        <v>189.8717646524014</v>
       </c>
       <c r="H27">
-        <v>1681.293645400734</v>
+        <v>1638.4788034143</v>
       </c>
       <c r="I27">
-        <v>-487.3499767245532</v>
+        <v>-496.6677591561973</v>
       </c>
       <c r="J27">
-        <v>784.2141440736267</v>
+        <v>790.9393631099193</v>
       </c>
       <c r="K27">
-        <v>2917.306340120101</v>
+        <v>2952.580243204453</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.24288747756771</v>
+        <v>54.10078561455757</v>
       </c>
       <c r="G28">
-        <v>216.286850982382</v>
+        <v>207.6453506414717</v>
       </c>
       <c r="H28">
-        <v>1777.775198658453</v>
+        <v>1779.808882990679</v>
       </c>
       <c r="I28">
-        <v>-418.3713544580818</v>
+        <v>-417.2262252774607</v>
       </c>
       <c r="J28">
-        <v>742.244943569843</v>
+        <v>708.7214503493874</v>
       </c>
       <c r="K28">
-        <v>3002.953637562039</v>
+        <v>3078.659536728638</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.15081377385487</v>
+        <v>55.52793376073762</v>
       </c>
       <c r="G29">
-        <v>221.2828234513022</v>
+        <v>232.894724103747</v>
       </c>
       <c r="H29">
-        <v>1814.785275969258</v>
+        <v>1771.19769327173</v>
       </c>
       <c r="I29">
-        <v>-382.3814648537222</v>
+        <v>-383.1699788954245</v>
       </c>
       <c r="J29">
-        <v>685.4238806572716</v>
+        <v>658.7699558224228</v>
       </c>
       <c r="K29">
-        <v>3014.604731742369</v>
+        <v>2851.901291450937</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.012697410298</v>
+        <v>54.18708030915398</v>
       </c>
       <c r="G30">
-        <v>242.8404796970894</v>
+        <v>235.1728289595533</v>
       </c>
       <c r="H30">
-        <v>1790.225526464325</v>
+        <v>1797.394874319092</v>
       </c>
       <c r="I30">
-        <v>-321.656785292713</v>
+        <v>-310.0575904367602</v>
       </c>
       <c r="J30">
-        <v>618.091003330041</v>
+        <v>625.4560949551153</v>
       </c>
       <c r="K30">
-        <v>2696.637760577956</v>
+        <v>2801.076271986422</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.11829319531459</v>
+        <v>51.7933112029083</v>
       </c>
       <c r="G31">
-        <v>257.278568827177</v>
+        <v>263.7889305621154</v>
       </c>
       <c r="H31">
-        <v>1845.713787366913</v>
+        <v>1693.269538097753</v>
       </c>
       <c r="I31">
-        <v>-280.2158719725596</v>
+        <v>-258.3897339463802</v>
       </c>
       <c r="J31">
-        <v>563.4375716905739</v>
+        <v>617.8320040271308</v>
       </c>
       <c r="K31">
-        <v>2536.043151833094</v>
+        <v>2574.90270537669</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.74452944318914</v>
+        <v>51.65305253495081</v>
       </c>
       <c r="G32">
-        <v>278.8245542789243</v>
+        <v>288.6945348919974</v>
       </c>
       <c r="H32">
-        <v>1713.321324898476</v>
+        <v>1814.89655962593</v>
       </c>
       <c r="I32">
-        <v>-215.3708008722558</v>
+        <v>-200.4592141235019</v>
       </c>
       <c r="J32">
-        <v>542.9202592853005</v>
+        <v>548.099761098176</v>
       </c>
       <c r="K32">
-        <v>2433.10508301818</v>
+        <v>2488.017219777347</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.50042197793191</v>
+        <v>52.18017746353453</v>
       </c>
       <c r="G33">
-        <v>283.6426341416548</v>
+        <v>294.8169993325137</v>
       </c>
       <c r="H33">
-        <v>1862.986636979281</v>
+        <v>1755.937970308442</v>
       </c>
       <c r="I33">
-        <v>-142.4616853017293</v>
+        <v>-148.6406814776672</v>
       </c>
       <c r="J33">
-        <v>470.0554669844045</v>
+        <v>482.0580244230914</v>
       </c>
       <c r="K33">
-        <v>2403.875641177993</v>
+        <v>2420.798996488506</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>51.41780568918745</v>
+        <v>50.623429763945</v>
       </c>
       <c r="G34">
-        <v>310.886296247636</v>
+        <v>298.6824885279522</v>
       </c>
       <c r="H34">
-        <v>1744.53557435641</v>
+        <v>1801.241988491354</v>
       </c>
       <c r="I34">
-        <v>-81.58781805606087</v>
+        <v>-81.06886842069235</v>
       </c>
       <c r="J34">
-        <v>446.3052620725672</v>
+        <v>436.7804848986294</v>
       </c>
       <c r="K34">
-        <v>2229.631920621193</v>
+        <v>2209.921524118546</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.62534292149856</v>
+        <v>50.5163927652055</v>
       </c>
       <c r="G35">
-        <v>326.3352904380944</v>
+        <v>333.3055878394581</v>
       </c>
       <c r="H35">
-        <v>1901.107829946858</v>
+        <v>1797.171628019903</v>
       </c>
       <c r="I35">
-        <v>-19.25274607796687</v>
+        <v>-19.5321983207701</v>
       </c>
       <c r="J35">
-        <v>408.4692058335178</v>
+        <v>414.0677847889694</v>
       </c>
       <c r="K35">
-        <v>2118.716566412252</v>
+        <v>2097.42943210891</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.18977371261359</v>
+        <v>47.18498707853815</v>
       </c>
       <c r="G36">
-        <v>334.4049361048486</v>
+        <v>338.6610741608388</v>
       </c>
       <c r="H36">
-        <v>1828.051453193282</v>
+        <v>1775.004681921821</v>
       </c>
       <c r="I36">
-        <v>48.79365055571445</v>
+        <v>45.715716785667</v>
       </c>
       <c r="J36">
-        <v>348.828121616981</v>
+        <v>343.4701335449263</v>
       </c>
       <c r="K36">
-        <v>1915.388496113332</v>
+        <v>1917.017346287694</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.21353232763239</v>
+        <v>48.02697380225347</v>
       </c>
       <c r="G37">
-        <v>344.347323568141</v>
+        <v>362.164217077636</v>
       </c>
       <c r="H37">
-        <v>1854.663760766386</v>
+        <v>1907.106000774853</v>
       </c>
       <c r="I37">
-        <v>114.8408693622148</v>
+        <v>120.7611897030769</v>
       </c>
       <c r="J37">
-        <v>308.2794810522167</v>
+        <v>288.7931116643351</v>
       </c>
       <c r="K37">
-        <v>1682.090604322286</v>
+        <v>1567.565136463294</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.08899206275068</v>
+        <v>46.79302102571609</v>
       </c>
       <c r="G38">
-        <v>384.0159311112456</v>
+        <v>377.3054338566114</v>
       </c>
       <c r="H38">
-        <v>1914.79355523164</v>
+        <v>1936.580342241485</v>
       </c>
       <c r="I38">
-        <v>190.6021896757777</v>
+        <v>177.6268782102253</v>
       </c>
       <c r="J38">
-        <v>257.2656123416779</v>
+        <v>237.9631511270179</v>
       </c>
       <c r="K38">
-        <v>1415.821435722694</v>
+        <v>1423.870310458669</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.36215882539882</v>
+        <v>44.75559792528007</v>
       </c>
       <c r="G39">
-        <v>384.9576201967298</v>
+        <v>380.0909729213136</v>
       </c>
       <c r="H39">
-        <v>1847.163228384965</v>
+        <v>1880.498801810395</v>
       </c>
       <c r="I39">
-        <v>267.6657434907474</v>
+        <v>251.344773391758</v>
       </c>
       <c r="J39">
-        <v>195.5532212023856</v>
+        <v>202.2712110428753</v>
       </c>
       <c r="K39">
-        <v>1191.681136437988</v>
+        <v>1178.340302599962</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.65256086354502</v>
+        <v>43.22030285191325</v>
       </c>
       <c r="G40">
-        <v>397.3057428635637</v>
+        <v>411.751236179464</v>
       </c>
       <c r="H40">
-        <v>1941.623701859589</v>
+        <v>1925.128205887489</v>
       </c>
       <c r="I40">
-        <v>330.0750764133564</v>
+        <v>327.5172884842694</v>
       </c>
       <c r="J40">
-        <v>150.1881113385064</v>
+        <v>157.563168808317</v>
       </c>
       <c r="K40">
-        <v>880.7571389062107</v>
+        <v>931.0215958883813</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.02005619314095</v>
+        <v>42.07609329963461</v>
       </c>
       <c r="G41">
-        <v>415.3922399902163</v>
+        <v>440.9278978498515</v>
       </c>
       <c r="H41">
-        <v>1815.031505978748</v>
+        <v>1807.566561951536</v>
       </c>
       <c r="I41">
-        <v>389.520796080544</v>
+        <v>392.0643565291248</v>
       </c>
       <c r="J41">
-        <v>102.2369668150057</v>
+        <v>106.475012027008</v>
       </c>
       <c r="K41">
-        <v>627.344323236635</v>
+        <v>629.1321014040147</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>40.8097735141133</v>
+        <v>43.11097299125703</v>
       </c>
       <c r="G42">
-        <v>429.7989418426778</v>
+        <v>450.47383346544</v>
       </c>
       <c r="H42">
-        <v>1827.639559085824</v>
+        <v>1855.486564463075</v>
       </c>
       <c r="I42">
-        <v>475.5615317465874</v>
+        <v>473.111713898857</v>
       </c>
       <c r="J42">
-        <v>52.64221833154766</v>
+        <v>51.76352193457998</v>
       </c>
       <c r="K42">
-        <v>347.869231039016</v>
+        <v>333.9766066856066</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.81571324323271</v>
+        <v>43.49285779101111</v>
       </c>
       <c r="G43">
-        <v>446.8684035886495</v>
+        <v>471.3693880313422</v>
       </c>
       <c r="H43">
-        <v>1888.69784402788</v>
+        <v>1924.269122452261</v>
       </c>
       <c r="I43">
-        <v>535.6571993566449</v>
+        <v>531.1559570550475</v>
       </c>
       <c r="J43">
-        <v>5.530291959202346</v>
+        <v>5.135090004062111</v>
       </c>
       <c r="K43">
-        <v>32.95498670926131</v>
+        <v>32.2234841025325</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.70457990992502</v>
+        <v>42.01194844337549</v>
       </c>
       <c r="G44">
-        <v>497.5995565285183</v>
+        <v>492.4686710668773</v>
       </c>
       <c r="H44">
-        <v>1961.289972904303</v>
+        <v>1907.170000709196</v>
       </c>
       <c r="I44">
-        <v>618.1951318166484</v>
+        <v>630.4068489646432</v>
       </c>
       <c r="J44">
-        <v>-44.93418725809487</v>
+        <v>-42.39362305891322</v>
       </c>
       <c r="K44">
-        <v>-274.7423675149467</v>
+        <v>-283.0276766924125</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.63116638093918</v>
+        <v>42.51954554448743</v>
       </c>
       <c r="G45">
-        <v>518.7845484416205</v>
+        <v>514.3027753130959</v>
       </c>
       <c r="H45">
-        <v>1860.858138652115</v>
+        <v>1955.981458602983</v>
       </c>
       <c r="I45">
-        <v>741.5290875817717</v>
+        <v>753.9955057158022</v>
       </c>
       <c r="J45">
-        <v>-88.12562174350974</v>
+        <v>-94.91978544202038</v>
       </c>
       <c r="K45">
-        <v>-621.0204943121797</v>
+        <v>-643.0519478099493</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.0367172869045</v>
+        <v>40.577844037304</v>
       </c>
       <c r="G46">
-        <v>496.9971077310424</v>
+        <v>488.0287947712395</v>
       </c>
       <c r="H46">
-        <v>1951.137747552812</v>
+        <v>1979.44231535427</v>
       </c>
       <c r="I46">
-        <v>790.6749358736962</v>
+        <v>843.2945618895716</v>
       </c>
       <c r="J46">
-        <v>-133.8594968603315</v>
+        <v>-134.0974830933453</v>
       </c>
       <c r="K46">
-        <v>-1004.005966665821</v>
+        <v>-989.6396285784124</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.71519172343745</v>
+        <v>41.43126048745928</v>
       </c>
       <c r="G47">
-        <v>513.336976185328</v>
+        <v>538.7071574522806</v>
       </c>
       <c r="H47">
-        <v>1862.193539582663</v>
+        <v>1929.289887393433</v>
       </c>
       <c r="I47">
-        <v>854.9763604536174</v>
+        <v>885.7534334027775</v>
       </c>
       <c r="J47">
-        <v>-183.4054072287713</v>
+        <v>-185.499065591</v>
       </c>
       <c r="K47">
-        <v>-1378.710114404858</v>
+        <v>-1343.470504033026</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.72617292964246</v>
+        <v>37.53730264378486</v>
       </c>
       <c r="G48">
-        <v>548.0619664823832</v>
+        <v>532.43346288953</v>
       </c>
       <c r="H48">
-        <v>1995.925442375197</v>
+        <v>2026.148986320949</v>
       </c>
       <c r="I48">
-        <v>1000.987659690438</v>
+        <v>938.7587045451065</v>
       </c>
       <c r="J48">
-        <v>-230.5067357482105</v>
+        <v>-228.0249918401417</v>
       </c>
       <c r="K48">
-        <v>-1680.640346845795</v>
+        <v>-1627.485195665707</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.61329703049185</v>
+        <v>37.05209932275811</v>
       </c>
       <c r="G49">
-        <v>552.8456284728707</v>
+        <v>570.4999838451416</v>
       </c>
       <c r="H49">
-        <v>1918.520186777391</v>
+        <v>1900.650878662786</v>
       </c>
       <c r="I49">
-        <v>1064.0790533275</v>
+        <v>1021.374487543182</v>
       </c>
       <c r="J49">
-        <v>-281.2174831185297</v>
+        <v>-292.5399079949826</v>
       </c>
       <c r="K49">
-        <v>-2055.251457329421</v>
+        <v>-2181.169826042476</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.59010391427949</v>
+        <v>39.83016333351246</v>
       </c>
       <c r="G50">
-        <v>586.6600726365297</v>
+        <v>574.3961658821137</v>
       </c>
       <c r="H50">
-        <v>1910.989809198383</v>
+        <v>1861.730495636893</v>
       </c>
       <c r="I50">
-        <v>1144.002368369155</v>
+        <v>1206.91649893417</v>
       </c>
       <c r="J50">
-        <v>-331.7903890947664</v>
+        <v>-339.6202522350198</v>
       </c>
       <c r="K50">
-        <v>-2545.112804851447</v>
+        <v>-2627.224731400133</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.47177837548899</v>
+        <v>36.44170940393169</v>
       </c>
       <c r="G51">
-        <v>599.6482065211103</v>
+        <v>597.275774023486</v>
       </c>
       <c r="H51">
-        <v>1975.684658084682</v>
+        <v>1911.858622415959</v>
       </c>
       <c r="I51">
-        <v>1257.312767881216</v>
+        <v>1301.81936622736</v>
       </c>
       <c r="J51">
-        <v>-373.1777283799144</v>
+        <v>-372.4279250749641</v>
       </c>
       <c r="K51">
-        <v>-2918.021688413472</v>
+        <v>-2987.992625036371</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.35600559574823</v>
+        <v>38.05827546612008</v>
       </c>
       <c r="G52">
-        <v>610.8754595021945</v>
+        <v>639.3493993690225</v>
       </c>
       <c r="H52">
-        <v>1921.331769342632</v>
+        <v>1890.364323465836</v>
       </c>
       <c r="I52">
-        <v>1327.125133717617</v>
+        <v>1388.824878379836</v>
       </c>
       <c r="J52">
-        <v>-447.9694399309226</v>
+        <v>-425.0747959946016</v>
       </c>
       <c r="K52">
-        <v>-3376.07402394365</v>
+        <v>-3306.939042875655</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.05778114198707</v>
+        <v>35.84083663661774</v>
       </c>
       <c r="G53">
-        <v>648.3641516886884</v>
+        <v>632.2194644410114</v>
       </c>
       <c r="H53">
-        <v>2020.073029480691</v>
+        <v>1985.43410866224</v>
       </c>
       <c r="I53">
-        <v>1502.254310282124</v>
+        <v>1431.75900709651</v>
       </c>
       <c r="J53">
-        <v>-472.9984169461086</v>
+        <v>-491.6686232935693</v>
       </c>
       <c r="K53">
-        <v>-3700.151506722422</v>
+        <v>-3807.078099869412</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.42466712949767</v>
+        <v>36.98154423409333</v>
       </c>
       <c r="G54">
-        <v>644.6120450967505</v>
+        <v>668.1087399863549</v>
       </c>
       <c r="H54">
-        <v>1990.414248663169</v>
+        <v>2041.239101685976</v>
       </c>
       <c r="I54">
-        <v>1578.731141961174</v>
+        <v>1528.822267916546</v>
       </c>
       <c r="J54">
-        <v>-530.271030705065</v>
+        <v>-535.2899333638006</v>
       </c>
       <c r="K54">
-        <v>-4442.654019074041</v>
+        <v>-4115.488158020182</v>
       </c>
     </row>
   </sheetData>
